--- a/va_facility_data_2025-02-20/Baraboo VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Baraboo%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Baraboo VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Baraboo%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rdc7d06a0548c4d1f9a3192ce270be49e"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra2c629e294b94f96b5d8467b45fb5218"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R19108411bd734ac189fe32bb9fc0e783"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R4b676c0435a44967ba80aa58d273db02"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re679763be8694a10b4671839acf20af5"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R688abe1754ca49998b71c5a8d7c63744"/>
   </x:sheets>
 </x:workbook>
 </file>
